--- a/api/Board/Qna_API.xlsx
+++ b/api/Board/Qna_API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEA4775-6531-473F-9495-A051511582CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53786F02-501D-4CC9-BC6F-5D887806E627}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="질문게시판 전체 조회" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="111">
   <si>
     <t>Title</t>
   </si>
@@ -951,15 +951,6 @@
   </si>
   <si>
     <r>
-      <t>{
-   "transaction_time" : "2021-01-08T17:12:33.333",
-   "result_code" : "OK",
-   "description" : "OK",
-   "data" : {
-      "id" : 1,
-      "title" : "</t>
-    </r>
-    <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
@@ -967,17 +958,19 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+      <t>익명여부</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_anonymous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -986,7 +979,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>공지</t>
+      <t>익명</t>
     </r>
     <r>
       <rPr>
@@ -995,8 +988,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>",
-      "content" : "</t>
+      <t xml:space="preserve"> true, </t>
     </r>
     <r>
       <rPr>
@@ -1006,7 +998,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>수강신청</t>
+      <t>비익명</t>
     </r>
     <r>
       <rPr>
@@ -1015,39 +1007,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날짜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: 12/31",
-      "attachment_file" : "/User/notice.docx",
-      "status": "GENERAL",
-      "views" : 1,
-      "likes" : 1,
-      "subejct" : "운영체제",
-      "created_at" : "2021-01-01T01:01:11.111",
-      "created_by" : "Hong gil dong",
-      "updated_at" : null,
-      "updated_by" : null,
-      "level" : 0,
-      "board_id" : 1
-   }
-}</t>
+      <t xml:space="preserve"> false</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1161,6 +1121,7 @@
         <family val="2"/>
       </rPr>
       <t>",
+      "is_anonymous" : "true",
       "created_at" : "2021-01-01T01:01:11.111",
       "created_by" : "Hong gil dong",
       "updated_at" : null,
@@ -1185,6 +1146,7 @@
    "result_code" : "OK",
    "description" : "OK",
    "data" : {
+      "id" : 1,
       "title" : "</t>
     </r>
     <r>
@@ -1267,14 +1229,14 @@
       "status": "GENERAL",
       "views" : 1,
       "likes" : 1,
-      "subject" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
+      "subejct" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>운영체제</t>
@@ -1287,123 +1249,7 @@
         <family val="2"/>
       </rPr>
       <t>",
-      "level" : 0,
-      "user_id" : 1
-   }
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-   "transaction_time" : "2021-01-08T17:12:33.333",
-   "result_code" : "OK",
-   "description" : "OK",
-   "data" : {
-      "id" : 1,
-      "title" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-      "content" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날짜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: 12/31",
-      "attachment_file" : "/User/notice.docx",
-      "status": "GENERAL",
-      "views" : 1,
-      "likes" : 1,
-      "subject" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>운영체제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
+      "is_anonymous" : "true",
       "created_at" : "2021-01-01T01:01:11.111",
       "created_by" : "Hong gil dong",
       "updated_at" : null,
@@ -1422,7 +1268,6 @@
    "result_code" : "OK",
    "description" : "OK",
    "data" : {
-      "id" : 1,
       "title" : "</t>
     </r>
     <r>
@@ -1430,7 +1275,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>수강신청</t>
@@ -1449,7 +1294,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>공지</t>
@@ -1469,7 +1314,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>수강신청</t>
@@ -1488,7 +1333,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>날짜</t>
@@ -1525,6 +1370,247 @@
         <family val="2"/>
       </rPr>
       <t>",
+      "is_anonymous" : "true",
+      "level" : 0,
+      "user_id" : 1
+   }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+   "transaction_time" : "2021-01-08T17:12:33.333",
+   "result_code" : "OK",
+   "description" : "OK",
+   "data" : {
+      "id" : 1,
+      "title" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+      "content" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날짜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 12/31",
+      "attachment_file" : "/User/notice.docx",
+      "status": "GENERAL",
+      "views" : 1,
+      "likes" : 1,
+      "subject" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운영체제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+      "is_anonymous" : "true",
+      "created_at" : "2021-01-01T01:01:11.111",
+      "created_by" : "Hong gil dong",
+      "updated_at" : null,
+      "updated_by" : null,
+      "level" : 0,
+      "board_id" : 1
+   }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+   "transaction_time" : "2021-01-08T17:12:33.333",
+   "result_code" : "OK",
+   "description" : "OK",
+   "data" : {
+      "id" : 1,
+      "title" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+      "content" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날짜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 12/31",
+      "attachment_file" : "/User/notice.docx",
+      "status": "GENERAL",
+      "views" : 1,
+      "likes" : 1,
+      "subject" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운영체제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+      "is_anonymous" : "true",
       "created_at" : "2021-01-01T01:01:11.111",
       "created_by" : "Hong gil dong",
       "updated_at" : null,
@@ -1797,7 +1883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1857,25 +1943,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1886,6 +1964,19 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1899,7 +1990,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1908,18 +1998,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2297,8 +2375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:H36"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2313,95 +2391,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -2450,64 +2528,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="42"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -2706,7 +2784,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B26" s="8"/>
@@ -2766,37 +2844,34 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>56</v>
+      <c r="A29" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>21</v>
@@ -2807,34 +2882,36 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>32</v>
@@ -2842,78 +2919,86 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25" t="s">
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G34" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H34" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="25" t="s">
+    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25" t="s">
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G35" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H35" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="35" t="s">
+    <row r="36" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
-    </row>
-    <row r="36" spans="1:8" ht="358" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
+    </row>
+    <row r="37" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="32"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="13"/>
@@ -3467,6 +3552,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A37:H37"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="B1:H1"/>
@@ -3474,7 +3560,6 @@
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A35:H35"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
@@ -3488,6 +3573,7 @@
     <hyperlink ref="A12" r:id="rId2" xr:uid="{E1F7B24E-D84A-408B-99F9-ED99F2301FAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3495,8 +3581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA89CF2D-BC52-4BF4-868E-5B8B099A5517}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3511,95 +3597,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -3658,64 +3744,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="42"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="21" t="s">
@@ -3914,7 +4000,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B26" s="8"/>
@@ -3934,19 +4020,19 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="25" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3971,37 +4057,34 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>56</v>
+      <c r="A29" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>21</v>
@@ -4012,34 +4095,36 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>32</v>
@@ -4047,78 +4132,86 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25" t="s">
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G34" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H34" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="25" t="s">
+    <row r="35" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25" t="s">
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G35" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H35" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="35" t="s">
+    <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
-    </row>
-    <row r="36" spans="1:8" ht="277" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
+    </row>
+    <row r="37" spans="1:8" ht="349.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="32"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="13"/>
@@ -4672,6 +4765,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A37:H37"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="B1:H1"/>
@@ -4679,7 +4773,6 @@
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A35:H35"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
@@ -4700,8 +4793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H4"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4716,95 +4809,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -5003,10 +5096,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="25" t="s">
         <v>79</v>
       </c>
       <c r="F18" s="9" t="s">
@@ -5015,62 +5108,59 @@
       <c r="G18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="25" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="A19" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>101</v>
+      <c r="H19" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="B20" s="24"/>
       <c r="C20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>56</v>
+        <v>81</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>21</v>
@@ -5081,34 +5171,36 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>32</v>
@@ -5116,250 +5208,248 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G25" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H25" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="25" t="s">
+    <row r="26" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25" t="s">
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G26" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H26" s="29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="51" t="s">
+    <row r="27" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="54" t="s">
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
+    </row>
+    <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
-    </row>
-    <row r="28" spans="1:8" ht="214" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="35" t="s">
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
+    </row>
+    <row r="29" spans="1:8" ht="256" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="26" t="s">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B31" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="59"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="26" t="s">
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="57"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B32" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C32" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D32" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E32" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F32" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G32" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H32" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="25" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G33" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H33" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="25" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G34" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H34" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="25" t="s">
+    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G35" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="25" t="s">
+      <c r="H35" s="29"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G36" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H36" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="25" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25" t="s">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25" t="s">
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G37" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H37" s="29" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="8"/>
@@ -5370,16 +5460,16 @@
         <v>21</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="9" t="s">
-        <v>46</v>
+      <c r="A39" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="8"/>
@@ -5387,136 +5477,133 @@
         <v>27</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="8" t="s">
-        <v>49</v>
+      <c r="A40" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="9" t="s">
-        <v>51</v>
+      <c r="A41" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="9" t="s">
-        <v>52</v>
+      <c r="C41" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" s="9" t="s">
+      <c r="F41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>79</v>
-      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="30" t="s">
+      <c r="H42" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="25" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>101</v>
+      <c r="C43" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="B44" s="28"/>
       <c r="C44" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
       <c r="F44" s="8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>56</v>
+        <v>81</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>56</v>
+      <c r="A45" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="8"/>
@@ -5524,17 +5611,19 @@
         <v>55</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="8"/>
@@ -5542,73 +5631,111 @@
         <v>27</v>
       </c>
       <c r="G47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="25" t="s">
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25" t="s">
+      <c r="B50" s="29"/>
+      <c r="C50" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25" t="s">
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="G50" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="25" t="s">
+      <c r="H50" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="25" t="s">
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25" t="s">
+      <c r="B51" s="29"/>
+      <c r="C51" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25" t="s">
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G51" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="25" t="s">
+      <c r="H51" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="27" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="29"/>
-    </row>
-    <row r="51" spans="1:8" ht="303" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="34"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="40"/>
+    </row>
+    <row r="53" spans="1:8" ht="293" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="32"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
@@ -5931,8 +6058,9 @@
       <c r="H94" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A51:H51"/>
+  <mergeCells count="14">
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A53:H53"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -5940,16 +6068,16 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A26:H26"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="A29:H29"/>
-    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="B31:H31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{3A039392-055F-41DA-91B1-F0EA51FC2A4E}"/>
-    <hyperlink ref="A27" r:id="rId2" xr:uid="{364A12D2-4995-4A23-A404-6A0D1A2185AC}"/>
+    <hyperlink ref="A28" r:id="rId2" xr:uid="{364A12D2-4995-4A23-A404-6A0D1A2185AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5959,8 +6087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5975,95 +6103,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -6282,10 +6410,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="25" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -6294,7 +6422,7 @@
       <c r="G19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="25" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6319,37 +6447,34 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>56</v>
+      <c r="A21" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>21</v>
@@ -6360,34 +6485,36 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>32</v>
@@ -6395,235 +6522,233 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25" t="s">
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G26" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H26" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="51" t="s">
+    <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-    </row>
-    <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="54" t="s">
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
+    </row>
+    <row r="28" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
-    </row>
-    <row r="28" spans="1:13" ht="270" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="35" t="s">
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
+    </row>
+    <row r="29" spans="1:13" ht="299" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A30" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30" s="26" t="s">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A31" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B31" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="59"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A31" s="26" t="s">
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="57"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B32" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C32" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D32" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E32" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F32" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G32" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H32" s="27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="25" t="s">
+      <c r="I32" s="58"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G33" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H33" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="60"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="25" t="s">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G34" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H34" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="25" t="s">
+    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G35" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="25" t="s">
+      <c r="H35" s="29"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G36" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H36" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="25" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25" t="s">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25" t="s">
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G37" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H37" s="29" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="8"/>
@@ -6634,16 +6759,16 @@
         <v>21</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="9" t="s">
-        <v>46</v>
+      <c r="A39" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="8"/>
@@ -6651,136 +6776,133 @@
         <v>27</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="8" t="s">
-        <v>49</v>
+      <c r="A40" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="9" t="s">
-        <v>51</v>
+      <c r="A41" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="9" t="s">
-        <v>52</v>
+      <c r="C41" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" s="9" t="s">
+      <c r="F41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>79</v>
-      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="30" t="s">
+      <c r="H42" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="25" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>101</v>
+      <c r="C43" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="B44" s="28"/>
       <c r="C44" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
       <c r="F44" s="8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>56</v>
+        <v>81</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>56</v>
+      <c r="A45" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="8"/>
@@ -6788,17 +6910,19 @@
         <v>55</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="8"/>
@@ -6806,73 +6930,111 @@
         <v>27</v>
       </c>
       <c r="G47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="25" t="s">
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25" t="s">
+      <c r="B50" s="29"/>
+      <c r="C50" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25" t="s">
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="G50" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="25" t="s">
+      <c r="H50" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="25" t="s">
+    <row r="51" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25" t="s">
+      <c r="B51" s="29"/>
+      <c r="C51" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25" t="s">
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G51" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H49" s="25" t="s">
+      <c r="H51" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="35" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="37"/>
-    </row>
-    <row r="51" spans="1:8" ht="275" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="34"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="40"/>
+    </row>
+    <row r="53" spans="1:8" ht="303.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="32"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
@@ -7196,8 +7358,9 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="I32:M32"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -7205,17 +7368,16 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="A26:H26"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="A29:H29"/>
-    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="B31:H31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{26F60CE5-D601-4B2A-BA26-C5CDFC97ECD4}"/>
-    <hyperlink ref="A27" r:id="rId2" xr:uid="{EED67366-FBCF-48F6-BE02-C9FD51C451F4}"/>
+    <hyperlink ref="A28" r:id="rId2" xr:uid="{EED67366-FBCF-48F6-BE02-C9FD51C451F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7225,7 +7387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE8F0A6-CE1B-4868-9054-B38C338BA073}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:H11"/>
     </sheetView>
   </sheetViews>
@@ -7241,95 +7403,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -7378,64 +7540,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -7518,28 +7680,28 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
@@ -7662,24 +7824,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
@@ -8283,6 +8445,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -8292,13 +8461,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Board/Qna_API.xlsx
+++ b/api/Board/Qna_API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53786F02-501D-4CC9-BC6F-5D887806E627}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41A88B6-2AD3-4D53-8DE5-300F5193441D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="질문게시판 전체 조회" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="111">
   <si>
     <t>Title</t>
   </si>
@@ -1883,7 +1883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1956,6 +1956,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1964,6 +1968,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1976,15 +1989,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2375,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2391,95 +2395,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -2528,64 +2532,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="44"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -2957,78 +2961,65 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29" t="s">
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G36" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="29" t="s">
+      <c r="H36" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="38" t="s">
+    <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="40"/>
-    </row>
-    <row r="37" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="30" t="s">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="37"/>
+    </row>
+    <row r="38" spans="1:8" ht="382.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="32"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="34"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="11"/>
@@ -3552,8 +3543,8 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A38:H38"/>
     <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A36:H36"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -3582,7 +3573,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+      <selection activeCell="A38" sqref="A38:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3597,95 +3588,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -3744,64 +3735,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="44"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="21" t="s">
@@ -4169,79 +4160,66 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="29" t="s">
+    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29" t="s">
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G36" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="29" t="s">
+      <c r="H36" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="38" t="s">
+    <row r="37" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="40"/>
-    </row>
-    <row r="37" spans="1:8" ht="349.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="30" t="s">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="37"/>
+    </row>
+    <row r="38" spans="1:8" ht="363.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="32"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="34"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="11"/>
@@ -4765,8 +4743,8 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A38:H38"/>
     <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A36:H36"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -4794,7 +4772,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+      <selection activeCell="A52" sqref="A52:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4809,95 +4787,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -5096,36 +5074,42 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="8" t="s">
         <v>79</v>
       </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="8" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5133,12 +5117,12 @@
       <c r="A20" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="8" t="s">
         <v>64</v>
       </c>
@@ -5266,66 +5250,66 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
     </row>
     <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="54"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="56"/>
     </row>
     <row r="29" spans="1:8" ht="256" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="34"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="59"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="27" t="s">
@@ -5693,49 +5677,66 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="29" t="s">
+    <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29" t="s">
+      <c r="B52" s="29"/>
+      <c r="C52" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29" t="s">
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G52" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H52" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="38" t="s">
+    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="40"/>
-    </row>
-    <row r="53" spans="1:8" ht="293" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="30" t="s">
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="37"/>
+    </row>
+    <row r="54" spans="1:8" ht="318.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="34"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
@@ -6059,8 +6060,8 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A52:H52"/>
     <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A54:H54"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -6087,8 +6088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6103,95 +6104,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -6560,66 +6561,66 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
     </row>
     <row r="28" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="54"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="56"/>
     </row>
     <row r="29" spans="1:13" ht="299" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="34"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="59"/>
     </row>
     <row r="32" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="27" t="s">
@@ -6646,11 +6647,11 @@
       <c r="H32" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="58"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="29" t="s">
@@ -6992,49 +6993,66 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="29" t="s">
+    <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29" t="s">
+      <c r="B52" s="29"/>
+      <c r="C52" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29" t="s">
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G52" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H52" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="38" t="s">
+    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="40"/>
-    </row>
-    <row r="53" spans="1:8" ht="303.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="30" t="s">
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="37"/>
+    </row>
+    <row r="54" spans="1:8" ht="333" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="34"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
@@ -7358,8 +7376,8 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A52:H52"/>
     <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A54:H54"/>
     <mergeCell ref="I32:M32"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
@@ -7403,95 +7421,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -7540,64 +7558,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="64"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -7680,28 +7698,28 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
@@ -7824,24 +7842,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
@@ -8445,13 +8463,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -8461,6 +8472,13 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Board/Qna_API.xlsx
+++ b/api/Board/Qna_API.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41A88B6-2AD3-4D53-8DE5-300F5193441D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF86EAAA-948E-4628-9D08-E48FDE0A4F2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="121">
   <si>
     <t>Title</t>
   </si>
@@ -1621,12 +1621,248 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pagination </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_pages</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_elements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_elements</t>
+  </si>
+  <si>
+    <t>default 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1748,6 +1984,22 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1883,7 +2135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1958,6 +2210,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2062,6 +2321,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2379,8 +2644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2395,95 +2660,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -2532,64 +2797,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="46"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -2998,58 +3263,114 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+    </row>
+    <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="71"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="71"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="71"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="71" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
-    </row>
-    <row r="38" spans="1:8" ht="382.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="32" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="40"/>
+    </row>
+    <row r="43" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="34"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="37"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="11"/>
@@ -3101,55 +3422,36 @@
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-    </row>
+    <row r="50" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="13"/>
@@ -3543,8 +3845,8 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A42:H42"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -3588,95 +3890,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -3735,64 +4037,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="46"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="21" t="s">
@@ -4198,28 +4500,28 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:8" ht="363.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="34"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="37"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="11"/>
@@ -4787,95 +5089,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -5250,66 +5552,66 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="56"/>
     </row>
     <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="56"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="59"/>
     </row>
     <row r="29" spans="1:8" ht="256" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="34"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="59"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="27" t="s">
@@ -5715,28 +6017,28 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="37"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="40"/>
     </row>
     <row r="54" spans="1:8" ht="318.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="34"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="37"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
@@ -6104,95 +6406,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -6561,66 +6863,66 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="56"/>
     </row>
     <row r="28" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="56"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="59"/>
     </row>
     <row r="29" spans="1:13" ht="299" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="34"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="59"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="27" t="s">
@@ -6647,11 +6949,11 @@
       <c r="H32" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="60"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="29" t="s">
@@ -7031,28 +7333,28 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="37"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="40"/>
     </row>
     <row r="54" spans="1:8" ht="333" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="34"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="37"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
@@ -7421,95 +7723,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -7558,64 +7860,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -7698,28 +8000,28 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
@@ -7842,24 +8144,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
@@ -8463,6 +8765,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -8472,13 +8781,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Board/Qna_API.xlsx
+++ b/api/Board/Qna_API.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF86EAAA-948E-4628-9D08-E48FDE0A4F2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406BE6CB-C7F6-4C84-8B9A-EF225AB8131E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="질문게시판 전체 조회" sheetId="1" r:id="rId1"/>
-    <sheet name="질문게시판 상세 조회" sheetId="2" r:id="rId2"/>
-    <sheet name="질문게시판 작성" sheetId="3" r:id="rId3"/>
-    <sheet name="질문게시판 수정" sheetId="4" r:id="rId4"/>
-    <sheet name="질문게시판 삭제" sheetId="5" r:id="rId5"/>
+    <sheet name="질문게시판 검색(제목)" sheetId="6" r:id="rId2"/>
+    <sheet name="질문게시판 검색(제목+내용)" sheetId="8" r:id="rId3"/>
+    <sheet name="질문게시판 검색(작성자)" sheetId="7" r:id="rId4"/>
+    <sheet name="질문게시판 상세 조회" sheetId="2" r:id="rId5"/>
+    <sheet name="질문게시판 작성" sheetId="3" r:id="rId6"/>
+    <sheet name="질문게시판 수정" sheetId="4" r:id="rId7"/>
+    <sheet name="질문게시판 삭제" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="131">
   <si>
     <t>Title</t>
   </si>
@@ -1857,12 +1860,275 @@
     <t>default 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>http://localhost:8080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Qna (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>질문게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/qna/search/title?title=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/board/qna/search/title?title=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Qna (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>질문게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/qna/search/title&amp;content?title=name&amp;content=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/board/qna/search/title&amp;content?title=name&amp;content=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Qna (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>질문게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/qna/search/writer?writer=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/board/qna/search/writer?writer=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2001,6 +2267,19 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2135,7 +2414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2217,6 +2496,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2321,12 +2616,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2644,11 +2933,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -2656,101 +2945,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="41" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2776,7 +3065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2786,7 +3075,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2796,67 +3085,67 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="47" t="s">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="48" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="49"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="50" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="55"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
@@ -2882,7 +3171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -2900,7 +3189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -2918,7 +3207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -2934,7 +3223,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="22" t="s">
         <v>86</v>
       </c>
@@ -2952,7 +3241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>94</v>
       </c>
@@ -2972,7 +3261,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
@@ -2992,7 +3281,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
@@ -3012,7 +3301,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="9" t="s">
         <v>46</v>
       </c>
@@ -3032,7 +3321,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
         <v>49</v>
       </c>
@@ -3052,7 +3341,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26" s="26" t="s">
         <v>82</v>
       </c>
@@ -3072,7 +3361,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
         <v>78</v>
       </c>
@@ -3092,7 +3381,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
         <v>99</v>
       </c>
@@ -3112,7 +3401,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29" s="25" t="s">
         <v>102</v>
       </c>
@@ -3129,7 +3418,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
         <v>53</v>
       </c>
@@ -3149,7 +3438,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
         <v>57</v>
       </c>
@@ -3169,7 +3458,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
         <v>59</v>
       </c>
@@ -3187,7 +3476,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
         <v>61</v>
       </c>
@@ -3205,7 +3494,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="19.5" customHeight="1">
       <c r="A34" s="29" t="s">
         <v>38</v>
       </c>
@@ -3225,7 +3514,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="18" customHeight="1">
       <c r="A35" s="25" t="s">
         <v>73</v>
       </c>
@@ -3242,7 +3531,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="19" customHeight="1">
       <c r="A36" s="29" t="s">
         <v>83</v>
       </c>
@@ -3262,7 +3551,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="19.5" customHeight="1">
       <c r="A37" s="33" t="s">
         <v>111</v>
       </c>
@@ -3274,12 +3563,12 @@
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
     </row>
-    <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="18" customHeight="1">
       <c r="A38" s="33" t="s">
         <v>112</v>
       </c>
       <c r="B38" s="32"/>
-      <c r="C38" s="71" t="s">
+      <c r="C38" s="39" t="s">
         <v>113</v>
       </c>
       <c r="D38" s="32"/>
@@ -3290,14 +3579,14 @@
       <c r="G38" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="71"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H38" s="39"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="33" t="s">
         <v>114</v>
       </c>
       <c r="B39" s="32"/>
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="40" t="s">
         <v>115</v>
       </c>
       <c r="D39" s="32"/>
@@ -3308,14 +3597,14 @@
       <c r="G39" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="71"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H39" s="39"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="33" t="s">
         <v>116</v>
       </c>
       <c r="B40" s="32"/>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="40" t="s">
         <v>117</v>
       </c>
       <c r="D40" s="32"/>
@@ -3326,14 +3615,14 @@
       <c r="G40" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="71"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="33" t="s">
         <v>118</v>
       </c>
       <c r="B41" s="32"/>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="40" t="s">
         <v>119</v>
       </c>
       <c r="D41" s="32"/>
@@ -3344,35 +3633,35 @@
       <c r="G41" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="71" t="s">
+      <c r="H41" s="39" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="38" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="40"/>
-    </row>
-    <row r="43" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="35" t="s">
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="46"/>
+    </row>
+    <row r="43" spans="1:8" ht="409.5" customHeight="1">
+      <c r="A43" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="37"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="43"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -3382,7 +3671,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3392,7 +3681,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -3402,7 +3691,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -3412,7 +3701,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -3422,8 +3711,8 @@
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="17" customHeight="1"/>
+    <row r="51" spans="1:8">
       <c r="A51" s="34"/>
       <c r="B51" s="34"/>
       <c r="C51" s="14"/>
@@ -3433,7 +3722,7 @@
       <c r="G51" s="34"/>
       <c r="H51" s="34"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="34"/>
       <c r="B52" s="34"/>
       <c r="C52" s="14"/>
@@ -3443,7 +3732,7 @@
       <c r="G52" s="34"/>
       <c r="H52" s="34"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8">
       <c r="A53" s="34"/>
       <c r="B53" s="34"/>
       <c r="C53" s="14"/>
@@ -3453,7 +3742,7 @@
       <c r="G53" s="34"/>
       <c r="H53" s="34"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3463,7 +3752,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3473,7 +3762,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3483,7 +3772,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
@@ -3493,7 +3782,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
@@ -3503,7 +3792,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
@@ -3513,7 +3802,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -3523,7 +3812,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -3533,7 +3822,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -3543,7 +3832,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -3553,7 +3842,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -3563,7 +3852,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3573,7 +3862,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -3583,7 +3872,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3593,7 +3882,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3603,7 +3892,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3613,7 +3902,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3623,7 +3912,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3633,7 +3922,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3643,7 +3932,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -3653,7 +3942,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -3663,7 +3952,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3673,7 +3962,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3683,7 +3972,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3693,7 +3982,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3703,7 +3992,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3713,7 +4002,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3723,7 +4012,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3733,7 +4022,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3743,7 +4032,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3753,7 +4042,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3763,7 +4052,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3773,7 +4062,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3783,7 +4072,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3793,7 +4082,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3803,7 +4092,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3813,7 +4102,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3823,7 +4112,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3833,7 +4122,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3871,6 +4160,3696 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFACAB3-5791-4794-BCB7-CBB6B6FFDB83}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="13.25" style="1"/>
+    <col min="8" max="8" width="54.08203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="55"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A34" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18" customHeight="1">
+      <c r="A35" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19" customHeight="1">
+      <c r="A36" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A37" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+    </row>
+    <row r="38" spans="1:8" ht="18" customHeight="1">
+      <c r="A38" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="39"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="35"/>
+      <c r="C39" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="39"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="46"/>
+    </row>
+    <row r="43" spans="1:8" ht="409.5" customHeight="1">
+      <c r="A43" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="43"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="50" spans="1:8" ht="17" customHeight="1"/>
+    <row r="51" spans="1:8">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{24BBD0B2-2192-4FBF-A733-804EF7844136}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{2CB42BDB-4797-4C0C-8C49-B3B11B566E8E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0B8FBD-025D-4839-A4EE-4EDA8B9B2274}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="13.25" style="1"/>
+    <col min="8" max="8" width="54.08203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="55"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A34" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18" customHeight="1">
+      <c r="A35" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19" customHeight="1">
+      <c r="A36" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A37" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+    </row>
+    <row r="38" spans="1:8" ht="18" customHeight="1">
+      <c r="A38" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="39"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="35"/>
+      <c r="C39" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="39"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="46"/>
+    </row>
+    <row r="43" spans="1:8" ht="409.5" customHeight="1">
+      <c r="A43" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="43"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="50" spans="1:8" ht="17" customHeight="1"/>
+    <row r="51" spans="1:8">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D5CA7B1D-FDDF-4E06-8546-01DAF3E1A5D6}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{95960CF2-EC34-4CE1-8BE3-9643E178C9D3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2F66F2-7D20-4541-A770-4AA7389B61A1}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="13.25" style="1"/>
+    <col min="8" max="8" width="54.08203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="55"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A34" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18" customHeight="1">
+      <c r="A35" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19" customHeight="1">
+      <c r="A36" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A37" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+    </row>
+    <row r="38" spans="1:8" ht="18" customHeight="1">
+      <c r="A38" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="39"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="35"/>
+      <c r="C39" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="39"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="46"/>
+    </row>
+    <row r="43" spans="1:8" ht="409.5" customHeight="1">
+      <c r="A43" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="43"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="50" spans="1:8" ht="17" customHeight="1"/>
+    <row r="51" spans="1:8">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{DBC61C76-5887-4BC6-8527-F6F4B2185AFF}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{26594527-35C7-4B5C-9955-F0E241B3B717}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA89CF2D-BC52-4BF4-868E-5B8B099A5517}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -3878,7 +7857,7 @@
       <selection activeCell="A38" sqref="A38:H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -3886,101 +7865,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="41" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4006,7 +7985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -4026,7 +8005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4036,67 +8015,67 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="47" t="s">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="48" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="49"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="50" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="55"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="21" t="s">
         <v>10</v>
       </c>
@@ -4122,7 +8101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="22" t="s">
         <v>26</v>
       </c>
@@ -4140,7 +8119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="22" t="s">
         <v>29</v>
       </c>
@@ -4158,7 +8137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="22" t="s">
         <v>31</v>
       </c>
@@ -4174,7 +8153,7 @@
       </c>
       <c r="H19" s="22"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="22" t="s">
         <v>33</v>
       </c>
@@ -4192,7 +8171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="22" t="s">
         <v>94</v>
       </c>
@@ -4212,7 +8191,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
@@ -4232,7 +8211,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
@@ -4252,7 +8231,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="9" t="s">
         <v>46</v>
       </c>
@@ -4272,7 +8251,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
         <v>49</v>
       </c>
@@ -4292,7 +8271,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26" s="26" t="s">
         <v>82</v>
       </c>
@@ -4312,7 +8291,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8">
       <c r="A27" s="25" t="s">
         <v>78</v>
       </c>
@@ -4329,7 +8308,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
         <v>99</v>
       </c>
@@ -4349,7 +8328,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29" s="25" t="s">
         <v>102</v>
       </c>
@@ -4366,7 +8345,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
         <v>53</v>
       </c>
@@ -4386,7 +8365,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
         <v>57</v>
       </c>
@@ -4406,7 +8385,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
         <v>59</v>
       </c>
@@ -4424,7 +8403,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
         <v>61</v>
       </c>
@@ -4442,7 +8421,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="15.5" customHeight="1">
       <c r="A34" s="29" t="s">
         <v>38</v>
       </c>
@@ -4462,7 +8441,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="18" customHeight="1">
       <c r="A35" s="25" t="s">
         <v>73</v>
       </c>
@@ -4479,7 +8458,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="16" customHeight="1">
       <c r="A36" s="29" t="s">
         <v>83</v>
       </c>
@@ -4499,31 +8478,31 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="38" t="s">
+    <row r="37" spans="1:8" ht="17.5" customHeight="1">
+      <c r="A37" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="40"/>
-    </row>
-    <row r="38" spans="1:8" ht="363.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="35" t="s">
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="46"/>
+    </row>
+    <row r="38" spans="1:8" ht="363.5" customHeight="1">
+      <c r="A38" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="37"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="43"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -4533,7 +8512,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -4543,7 +8522,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -4553,7 +8532,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -4563,7 +8542,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -4573,7 +8552,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -4583,7 +8562,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -4593,7 +8572,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -4603,7 +8582,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -4613,7 +8592,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -4623,7 +8602,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -4633,7 +8612,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -4643,7 +8622,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -4653,7 +8632,7 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4663,7 +8642,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4673,7 +8652,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4683,7 +8662,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
@@ -4693,7 +8672,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
@@ -4703,7 +8682,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
@@ -4713,7 +8692,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -4723,7 +8702,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -4733,7 +8712,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4743,7 +8722,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4753,7 +8732,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -4763,7 +8742,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -4773,7 +8752,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -4783,7 +8762,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -4793,7 +8772,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -4803,7 +8782,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -4813,7 +8792,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -4823,7 +8802,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -4833,7 +8812,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -4843,7 +8822,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -4853,7 +8832,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -4863,7 +8842,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -4873,7 +8852,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -4883,7 +8862,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -4893,7 +8872,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -4903,7 +8882,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -4913,7 +8892,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -4923,7 +8902,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -4933,7 +8912,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -4943,7 +8922,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -4953,7 +8932,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -4963,7 +8942,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -4973,7 +8952,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -4983,7 +8962,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -4993,7 +8972,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -5003,7 +8982,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -5013,7 +8992,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -5023,7 +9002,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -5033,7 +9012,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -5069,7 +9048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -5077,7 +9056,7 @@
       <selection activeCell="A52" sqref="A52:H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -5085,101 +9064,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="41" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -5205,7 +9184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -5223,7 +9202,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -5241,7 +9220,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -5257,7 +9236,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -5275,7 +9254,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
@@ -5295,7 +9274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
         <v>44</v>
       </c>
@@ -5315,7 +9294,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
@@ -5335,7 +9314,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
         <v>49</v>
       </c>
@@ -5355,7 +9334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -5375,7 +9354,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -5395,7 +9374,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
         <v>102</v>
       </c>
@@ -5415,7 +9394,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
         <v>99</v>
       </c>
@@ -5435,7 +9414,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
         <v>53</v>
       </c>
@@ -5455,7 +9434,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
         <v>57</v>
       </c>
@@ -5475,7 +9454,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
         <v>59</v>
       </c>
@@ -5493,7 +9472,7 @@
       </c>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
         <v>61</v>
       </c>
@@ -5511,7 +9490,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" s="29" t="s">
         <v>38</v>
       </c>
@@ -5531,7 +9510,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="15.5" customHeight="1">
       <c r="A26" s="29" t="s">
         <v>73</v>
       </c>
@@ -5551,69 +9530,69 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="54" t="s">
+    <row r="27" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A27" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
-    </row>
-    <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="57" t="s">
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
+    </row>
+    <row r="28" spans="1:8" ht="16" customHeight="1">
+      <c r="A28" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="59"/>
-    </row>
-    <row r="29" spans="1:8" ht="256" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="35" t="s">
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="65"/>
+    </row>
+    <row r="29" spans="1:8" ht="256" customHeight="1">
+      <c r="A29" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="38" t="s">
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="43"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="62"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="68"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="27" t="s">
         <v>10</v>
       </c>
@@ -5639,7 +9618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="A33" s="29" t="s">
         <v>26</v>
       </c>
@@ -5657,7 +9636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8">
       <c r="A34" s="29" t="s">
         <v>29</v>
       </c>
@@ -5675,7 +9654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="29" t="s">
         <v>31</v>
       </c>
@@ -5691,7 +9670,7 @@
       </c>
       <c r="H35" s="29"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="A36" s="29" t="s">
         <v>33</v>
       </c>
@@ -5709,7 +9688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8">
       <c r="A37" s="29" t="s">
         <v>94</v>
       </c>
@@ -5729,7 +9708,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
         <v>42</v>
       </c>
@@ -5749,7 +9728,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
         <v>44</v>
       </c>
@@ -5769,7 +9748,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="9" t="s">
         <v>46</v>
       </c>
@@ -5789,7 +9768,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
         <v>49</v>
       </c>
@@ -5809,7 +9788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="9" t="s">
         <v>51</v>
       </c>
@@ -5829,7 +9808,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="25" t="s">
         <v>78</v>
       </c>
@@ -5846,7 +9825,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
         <v>99</v>
       </c>
@@ -5866,7 +9845,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="25" t="s">
         <v>102</v>
       </c>
@@ -5883,7 +9862,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
         <v>53</v>
       </c>
@@ -5903,7 +9882,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" ht="17" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>57</v>
       </c>
@@ -5923,7 +9902,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="8" t="s">
         <v>59</v>
       </c>
@@ -5941,7 +9920,7 @@
       </c>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="18" customHeight="1">
       <c r="A49" s="8" t="s">
         <v>61</v>
       </c>
@@ -5959,7 +9938,7 @@
       </c>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8">
       <c r="A50" s="29" t="s">
         <v>38</v>
       </c>
@@ -5979,7 +9958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" ht="18" customHeight="1">
       <c r="A51" s="25" t="s">
         <v>73</v>
       </c>
@@ -5996,7 +9975,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="29" t="s">
         <v>83</v>
       </c>
@@ -6016,31 +9995,31 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="38" t="s">
+    <row r="53" spans="1:8" ht="16" customHeight="1">
+      <c r="A53" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="40"/>
-    </row>
-    <row r="54" spans="1:8" ht="318.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="35" t="s">
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="46"/>
+    </row>
+    <row r="54" spans="1:8" ht="318.5" customHeight="1">
+      <c r="A54" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="37"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="43"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -6050,7 +10029,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -6060,7 +10039,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -6070,7 +10049,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -6080,7 +10059,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -6090,7 +10069,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -6100,7 +10079,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -6110,7 +10089,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -6120,7 +10099,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -6130,7 +10109,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -6140,7 +10119,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -6150,7 +10129,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -6160,7 +10139,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -6170,7 +10149,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -6180,7 +10159,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -6190,7 +10169,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -6200,7 +10179,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -6210,7 +10189,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -6220,7 +10199,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -6230,7 +10209,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -6240,7 +10219,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -6250,7 +10229,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -6260,7 +10239,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -6270,7 +10249,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -6280,7 +10259,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -6290,7 +10269,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -6300,7 +10279,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -6310,7 +10289,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -6320,7 +10299,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -6330,7 +10309,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -6340,7 +10319,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -6350,7 +10329,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -6386,7 +10365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:M94"/>
   <sheetViews>
@@ -6394,7 +10373,7 @@
       <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -6402,101 +10381,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="41" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -6522,7 +10501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -6540,7 +10519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -6558,7 +10537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -6574,7 +10553,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -6592,7 +10571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>94</v>
       </c>
@@ -6612,7 +10591,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
         <v>42</v>
       </c>
@@ -6632,7 +10611,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
         <v>44</v>
       </c>
@@ -6652,7 +10631,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
@@ -6672,7 +10651,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13">
       <c r="A17" s="8" t="s">
         <v>49</v>
       </c>
@@ -6692,7 +10671,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13">
       <c r="A18" s="9" t="s">
         <v>51</v>
       </c>
@@ -6712,7 +10691,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13">
       <c r="A19" s="25" t="s">
         <v>78</v>
       </c>
@@ -6729,7 +10708,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13">
       <c r="A20" s="8" t="s">
         <v>99</v>
       </c>
@@ -6749,7 +10728,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13">
       <c r="A21" s="25" t="s">
         <v>102</v>
       </c>
@@ -6766,7 +10745,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
         <v>53</v>
       </c>
@@ -6786,7 +10765,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13">
       <c r="A23" s="8" t="s">
         <v>57</v>
       </c>
@@ -6806,7 +10785,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13">
       <c r="A24" s="8" t="s">
         <v>59</v>
       </c>
@@ -6824,7 +10803,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13">
       <c r="A25" s="8" t="s">
         <v>61</v>
       </c>
@@ -6842,7 +10821,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" ht="16" customHeight="1">
       <c r="A26" s="29" t="s">
         <v>38</v>
       </c>
@@ -6862,69 +10841,69 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="54" t="s">
+    <row r="27" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A27" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
-    </row>
-    <row r="28" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="57" t="s">
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
+    </row>
+    <row r="28" spans="1:13" ht="17" customHeight="1">
+      <c r="A28" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="59"/>
-    </row>
-    <row r="29" spans="1:13" ht="299" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="35" t="s">
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="65"/>
+    </row>
+    <row r="29" spans="1:13" ht="299" customHeight="1">
+      <c r="A29" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30" s="38" t="s">
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="43"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="62"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="68"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.5" customHeight="1">
       <c r="A32" s="27" t="s">
         <v>10</v>
       </c>
@@ -6949,13 +10928,13 @@
       <c r="H32" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I32" s="69"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="29" t="s">
         <v>26</v>
       </c>
@@ -6973,7 +10952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8">
       <c r="A34" s="29" t="s">
         <v>29</v>
       </c>
@@ -6991,7 +10970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="29" t="s">
         <v>31</v>
       </c>
@@ -7007,7 +10986,7 @@
       </c>
       <c r="H35" s="29"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="A36" s="29" t="s">
         <v>33</v>
       </c>
@@ -7025,7 +11004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8">
       <c r="A37" s="29" t="s">
         <v>94</v>
       </c>
@@ -7045,7 +11024,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
         <v>42</v>
       </c>
@@ -7065,7 +11044,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39" s="8" t="s">
         <v>44</v>
       </c>
@@ -7085,7 +11064,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="9" t="s">
         <v>46</v>
       </c>
@@ -7105,7 +11084,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
         <v>49</v>
       </c>
@@ -7125,7 +11104,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="9" t="s">
         <v>51</v>
       </c>
@@ -7145,7 +11124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="25" t="s">
         <v>78</v>
       </c>
@@ -7162,7 +11141,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="8" t="s">
         <v>99</v>
       </c>
@@ -7182,7 +11161,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="25" t="s">
         <v>102</v>
       </c>
@@ -7199,7 +11178,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
         <v>53</v>
       </c>
@@ -7219,7 +11198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" ht="18.5" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>57</v>
       </c>
@@ -7239,7 +11218,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="8" t="s">
         <v>59</v>
       </c>
@@ -7257,7 +11236,7 @@
       </c>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="16" customHeight="1">
       <c r="A49" s="8" t="s">
         <v>61</v>
       </c>
@@ -7275,7 +11254,7 @@
       </c>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="18" customHeight="1">
       <c r="A50" s="29" t="s">
         <v>38</v>
       </c>
@@ -7295,7 +11274,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" ht="18" customHeight="1">
       <c r="A51" s="25" t="s">
         <v>73</v>
       </c>
@@ -7312,7 +11291,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="29" t="s">
         <v>83</v>
       </c>
@@ -7332,31 +11311,31 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="38" t="s">
+    <row r="53" spans="1:8" ht="16" customHeight="1">
+      <c r="A53" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="40"/>
-    </row>
-    <row r="54" spans="1:8" ht="333" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="35" t="s">
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="46"/>
+    </row>
+    <row r="54" spans="1:8" ht="333" customHeight="1">
+      <c r="A54" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="37"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="43"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -7366,7 +11345,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -7376,7 +11355,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -7386,7 +11365,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -7396,7 +11375,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -7406,7 +11385,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -7416,7 +11395,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -7426,7 +11405,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -7436,7 +11415,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -7446,7 +11425,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -7456,7 +11435,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -7466,7 +11445,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -7476,7 +11455,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -7486,7 +11465,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -7496,7 +11475,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -7506,7 +11485,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -7516,7 +11495,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -7526,7 +11505,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -7536,7 +11515,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -7546,7 +11525,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -7556,7 +11535,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -7566,7 +11545,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -7576,7 +11555,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -7586,7 +11565,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -7596,7 +11575,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -7606,7 +11585,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -7616,7 +11595,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -7626,7 +11605,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -7636,7 +11615,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -7646,7 +11625,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -7656,7 +11635,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -7666,7 +11645,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -7703,7 +11682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE8F0A6-CE1B-4868-9054-B38C338BA073}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -7711,7 +11690,7 @@
       <selection activeCell="A11" sqref="A11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -7719,101 +11698,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="41" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -7839,7 +11818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -7859,67 +11838,67 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="54" t="s">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="57" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="38" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
@@ -7945,7 +11924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -7963,7 +11942,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -7981,7 +11960,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -7999,31 +11978,31 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="50" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-    </row>
-    <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="35" t="s">
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+    </row>
+    <row r="20" spans="1:8" ht="74" customHeight="1">
+      <c r="A20" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -8033,7 +12012,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -8043,7 +12022,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="15"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -8053,7 +12032,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -8063,7 +12042,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" s="15"/>
       <c r="B25" s="13"/>
       <c r="C25" s="15"/>
@@ -8073,7 +12052,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -8083,7 +12062,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="19.5" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -8093,7 +12072,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="268" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="268" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -8103,7 +12082,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -8113,7 +12092,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -8123,7 +12102,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -8133,7 +12112,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -8143,27 +12122,27 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="66"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-    </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+    </row>
+    <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -8173,7 +12152,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -8183,7 +12162,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -8193,7 +12172,7 @@
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -8203,7 +12182,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -8213,7 +12192,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -8223,7 +12202,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -8233,7 +12212,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -8243,7 +12222,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -8253,7 +12232,7 @@
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -8263,7 +12242,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -8273,7 +12252,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -8283,7 +12262,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -8293,7 +12272,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -8303,7 +12282,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -8313,7 +12292,7 @@
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
     </row>
-    <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="271" customHeight="1">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -8323,7 +12302,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -8333,7 +12312,7 @@
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -8343,7 +12322,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -8353,7 +12332,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -8363,7 +12342,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -8373,7 +12352,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -8383,7 +12362,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -8393,7 +12372,7 @@
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -8403,7 +12382,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -8413,7 +12392,7 @@
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -8423,7 +12402,7 @@
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -8433,7 +12412,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -8443,7 +12422,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -8453,7 +12432,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -8463,7 +12442,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -8473,7 +12452,7 @@
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -8483,7 +12462,7 @@
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -8493,7 +12472,7 @@
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -8503,7 +12482,7 @@
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -8513,7 +12492,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -8523,7 +12502,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -8533,7 +12512,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -8543,7 +12522,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -8553,7 +12532,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -8563,7 +12542,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -8573,7 +12552,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -8583,7 +12562,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -8593,7 +12572,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -8603,7 +12582,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -8613,7 +12592,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -8623,7 +12602,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -8633,7 +12612,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -8643,7 +12622,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -8653,7 +12632,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -8663,7 +12642,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -8673,7 +12652,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -8683,7 +12662,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -8693,7 +12672,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -8703,7 +12682,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -8713,7 +12692,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -8723,7 +12702,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -8733,7 +12712,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -8743,7 +12722,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -8753,7 +12732,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -8765,13 +12744,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -8781,6 +12753,13 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Board/Qna_API.xlsx
+++ b/api/Board/Qna_API.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064FB329-6DE7-471F-9BD5-419DA3370DAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EDFCD4-F87B-4951-91DF-1D2999965F70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
-    <sheet name="질문게시판 전체 조회" sheetId="1" r:id="rId1"/>
-    <sheet name="질문게시판 검색(제목)" sheetId="6" r:id="rId2"/>
-    <sheet name="질문게시판 검색(제목+내용)" sheetId="8" r:id="rId3"/>
-    <sheet name="질문게시판 검색(작성자)" sheetId="7" r:id="rId4"/>
-    <sheet name="질문게시판 상세 조회" sheetId="2" r:id="rId5"/>
-    <sheet name="질문게시판 작성" sheetId="3" r:id="rId6"/>
-    <sheet name="질문게시판 수정" sheetId="4" r:id="rId7"/>
-    <sheet name="질문게시판 삭제" sheetId="5" r:id="rId8"/>
+    <sheet name="질문게시판 좋아요" sheetId="9" r:id="rId1"/>
+    <sheet name="질문게시판 전체 조회" sheetId="1" r:id="rId2"/>
+    <sheet name="질문게시판 검색(제목)" sheetId="6" r:id="rId3"/>
+    <sheet name="질문게시판 검색(제목+내용)" sheetId="8" r:id="rId4"/>
+    <sheet name="질문게시판 검색(작성자)" sheetId="7" r:id="rId5"/>
+    <sheet name="질문게시판 상세 조회" sheetId="2" r:id="rId6"/>
+    <sheet name="질문게시판 작성" sheetId="3" r:id="rId7"/>
+    <sheet name="질문게시판 수정" sheetId="4" r:id="rId8"/>
+    <sheet name="질문게시판 삭제" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="138">
   <si>
     <t>Title</t>
   </si>
@@ -2149,6 +2150,58 @@
    }
 }</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Qna (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>질문게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋아요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/qna/likes/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/board/qna/likes/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2442,7 +2495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2536,6 +2589,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2640,12 +2709,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2960,10 +3023,1230 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A20DE6-1C9D-45DF-9C48-A71A179A38AE}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="13.25" style="1"/>
+    <col min="8" max="8" width="54.08203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="59"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A34" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" ht="18" customHeight="1">
+      <c r="A35" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16" customHeight="1">
+      <c r="A36" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17.5" customHeight="1">
+      <c r="A37" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17" customHeight="1">
+      <c r="A38" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="50"/>
+    </row>
+    <row r="39" spans="1:8" ht="409.6" customHeight="1">
+      <c r="A39" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{40E2DD47-BBBC-4DB7-BE67-944CA3339284}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{67AD616F-6DB0-4850-B252-6524CBF6F44B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:H44"/>
     </sheetView>
   </sheetViews>
@@ -2979,95 +4262,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -3116,64 +4399,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="53"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
@@ -3315,12 +4598,12 @@
       <c r="A23" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="75"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="38" t="s">
         <v>64</v>
       </c>
@@ -3489,7 +4772,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="44" t="s">
         <v>131</v>
       </c>
       <c r="B32" s="8"/>
@@ -3688,28 +4971,28 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="17" customHeight="1">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="44"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="50"/>
     </row>
     <row r="44" spans="1:8" ht="409.6" customHeight="1">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="41"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="47"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="11"/>
@@ -4199,7 +5482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFACAB3-5791-4794-BCB7-CBB6B6FFDB83}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -4219,95 +5502,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -4356,64 +5639,64 @@
       <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="53"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="33" t="s">
@@ -4555,12 +5838,12 @@
       <c r="A23" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="75"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="38" t="s">
         <v>64</v>
       </c>
@@ -4729,7 +6012,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="44" t="s">
         <v>131</v>
       </c>
       <c r="B32" s="8"/>
@@ -4928,28 +6211,28 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="17" customHeight="1">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="44"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="50"/>
     </row>
     <row r="44" spans="1:8" ht="409.6" customHeight="1">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="41"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="47"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="11"/>
@@ -5439,7 +6722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0B8FBD-025D-4839-A4EE-4EDA8B9B2274}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -5459,95 +6742,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -5596,64 +6879,64 @@
       <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="53"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="33" t="s">
@@ -5795,12 +7078,12 @@
       <c r="A23" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="75"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="38" t="s">
         <v>64</v>
       </c>
@@ -5969,7 +7252,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="44" t="s">
         <v>131</v>
       </c>
       <c r="B32" s="8"/>
@@ -6168,28 +7451,28 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="17" customHeight="1">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="44"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="50"/>
     </row>
     <row r="44" spans="1:8" ht="409.6" customHeight="1">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="41"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="47"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="11"/>
@@ -6679,7 +7962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2F66F2-7D20-4541-A770-4AA7389B61A1}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -6699,95 +7982,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -6836,64 +8119,64 @@
       <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="53"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="33" t="s">
@@ -7035,12 +8318,12 @@
       <c r="A23" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="75"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="38" t="s">
         <v>64</v>
       </c>
@@ -7209,7 +8492,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="44" t="s">
         <v>131</v>
       </c>
       <c r="B32" s="8"/>
@@ -7408,28 +8691,28 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="17" customHeight="1">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="44"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="50"/>
     </row>
     <row r="44" spans="1:8" ht="409.6" customHeight="1">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="41"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="47"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="11"/>
@@ -7919,7 +9202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA89CF2D-BC52-4BF4-868E-5B8B099A5517}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -7939,95 +9222,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -8086,64 +9369,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="53"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="21" t="s">
@@ -8285,12 +9568,12 @@
       <c r="A23" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="75"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="38" t="s">
         <v>64</v>
       </c>
@@ -8456,7 +9739,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="44" t="s">
         <v>131</v>
       </c>
       <c r="B32" s="8"/>
@@ -8569,28 +9852,28 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="17" customHeight="1">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="50"/>
     </row>
     <row r="39" spans="1:8" ht="409.6" customHeight="1">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="41"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="11"/>
@@ -9138,7 +10421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -9158,95 +10441,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -9621,66 +10904,66 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="60"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
     </row>
     <row r="28" spans="1:8" ht="16" customHeight="1">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="69"/>
     </row>
     <row r="29" spans="1:8" ht="256" customHeight="1">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="41"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="47"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="66"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="72"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="27" t="s">
@@ -9822,12 +11105,12 @@
       <c r="A39" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="75"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
       <c r="F39" s="38" t="s">
         <v>64</v>
       </c>
@@ -9993,7 +11276,7 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="76" t="s">
+      <c r="A48" s="44" t="s">
         <v>131</v>
       </c>
       <c r="B48" s="8"/>
@@ -10106,28 +11389,28 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="17" customHeight="1">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="44"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="50"/>
     </row>
     <row r="55" spans="1:8" ht="409.6" customHeight="1">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="41"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="47"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="13"/>
@@ -10475,7 +11758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:M94"/>
   <sheetViews>
@@ -10495,95 +11778,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -10952,66 +12235,66 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="60"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
     </row>
     <row r="28" spans="1:13" ht="17" customHeight="1">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="69"/>
     </row>
     <row r="29" spans="1:13" ht="299" customHeight="1">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="41"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="47"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="66"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="72"/>
     </row>
     <row r="32" spans="1:13" ht="15.5" customHeight="1">
       <c r="A32" s="27" t="s">
@@ -11038,11 +12321,11 @@
       <c r="H32" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="67"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="28" t="s">
@@ -11158,12 +12441,12 @@
       <c r="A39" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="75"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
       <c r="F39" s="38" t="s">
         <v>64</v>
       </c>
@@ -11329,7 +12612,7 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="76" t="s">
+      <c r="A48" s="44" t="s">
         <v>131</v>
       </c>
       <c r="B48" s="8"/>
@@ -11442,28 +12725,28 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="17" customHeight="1">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="44"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="50"/>
     </row>
     <row r="55" spans="1:8" ht="409.6" customHeight="1">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="41"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="47"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="13"/>
@@ -11812,7 +13095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE8F0A6-CE1B-4868-9054-B38C338BA073}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -11832,95 +13115,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -11969,64 +13252,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="73"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
@@ -12109,28 +13392,28 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="13"/>
@@ -12253,24 +13536,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="69"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="17"/>
@@ -12874,13 +14157,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -12890,6 +14166,13 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
